--- a/datas_selected.xlsx
+++ b/datas_selected.xlsx
@@ -7,8 +7,10 @@
     <workbookView windowWidth="23880" windowHeight="12560"/>
   </bookViews>
   <sheets>
-    <sheet name="position_country" sheetId="1" r:id="rId1"/>
-    <sheet name="game_country" sheetId="2" r:id="rId2"/>
+    <sheet name="game_country" sheetId="1" r:id="rId1"/>
+    <sheet name="player_country" sheetId="2" r:id="rId2"/>
+    <sheet name="inventor" sheetId="3" r:id="rId3"/>
+    <sheet name="Clue" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -45,6 +47,9 @@
     <t>target_airport_ident</t>
   </si>
   <si>
+    <t>clue_id</t>
+  </si>
+  <si>
     <t>Luxembourg</t>
   </si>
   <si>
@@ -63,6 +68,9 @@
     <t>Singapore</t>
   </si>
   <si>
+    <t>null</t>
+  </si>
+  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -283,6 +291,99 @@
   </si>
   <si>
     <t>KADW</t>
+  </si>
+  <si>
+    <t>player_id</t>
+  </si>
+  <si>
+    <t>player_name</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>start_airport</t>
+  </si>
+  <si>
+    <t>initial_capa_value</t>
+  </si>
+  <si>
+    <t>final_goal_gap</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Beijing Capital International Airport</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle International Airport</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>London Heathrow Airport</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Sheremetyevo International Airport</t>
+  </si>
+  <si>
+    <t>Washington Dulles International Airport</t>
+  </si>
+  <si>
+    <t>invent_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>clue_type</t>
+  </si>
+  <si>
+    <t>clue_point</t>
+  </si>
+  <si>
+    <t>Key Person</t>
+  </si>
+  <si>
+    <t>General Informants</t>
+  </si>
+  <si>
+    <t>Passer-by</t>
   </si>
 </sst>
 </file>
@@ -295,7 +396,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +407,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -455,18 +564,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -802,139 +905,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -945,11 +1051,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1476,69 +1582,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="11.2115384615385" customWidth="1"/>
-    <col min="3" max="3" width="21.9519230769231" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.9519230769231" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.3365384615385" customWidth="1"/>
-    <col min="5" max="7" width="34.6153846153846" customWidth="1"/>
-    <col min="8" max="8" width="21.4711538461538" customWidth="1"/>
-    <col min="9" max="9" width="27.7211538461538" customWidth="1"/>
-    <col min="10" max="10" width="11.2115384615385" customWidth="1"/>
-    <col min="11" max="11" width="42.4615384615385" customWidth="1"/>
-    <col min="12" max="12" width="24.0384615384615" customWidth="1"/>
+    <col min="5" max="5" width="22.4326923076923" customWidth="1"/>
+    <col min="6" max="6" width="15.5384615384615" style="1" customWidth="1"/>
+    <col min="7" max="7" width="34.6153846153846" customWidth="1"/>
+    <col min="8" max="9" width="21.4711538461538" customWidth="1"/>
+    <col min="10" max="10" width="27.7211538461538" customWidth="1"/>
+    <col min="11" max="11" width="11.2115384615385" customWidth="1"/>
+    <col min="12" max="12" width="42.4615384615385" customWidth="1"/>
+    <col min="13" max="13" width="24.0384615384615" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="17.6" spans="1:12">
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="17.6" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>IFERROR(INDEX(J:J,MATCH(C2,I:I,0)),"")</f>
+      <c r="B2" s="3" t="str">
+        <f>IFERROR(INDEX(K:K,MATCH(C2,J:J,0)),"")</f>
         <v>LU</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>IFERROR(INDEX(K:K,MATCH(C2,I:I,0)),"")</f>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>IFERROR(INDEX(L:L,MATCH(C2,J:J,0)),"")</f>
         <v>Luxembourg-Findel International Airport</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f>IFERROR(INDEX(L:L,MATCH(C2,I:I,0)),"")</f>
+      <c r="E2" s="3" t="str">
+        <f>IFERROR(INDEX(M:M,MATCH(C2,J:J,0)),"")</f>
         <v>ELLX</v>
       </c>
-      <c r="H2" t="str">
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" t="str">
         <f>"'"&amp;C2&amp;"'"&amp;","</f>
         <v>'Luxembourg',</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
@@ -1547,689 +1658,749 @@
       <c r="L2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" ht="17.6" spans="1:12">
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="17.6" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f t="shared" ref="B3:B21" si="0">IFERROR(INDEX(J:J,MATCH(C3,I:I,0)),"")</f>
+      <c r="B3" s="3" t="str">
+        <f t="shared" ref="B3:B21" si="0">IFERROR(INDEX(K:K,MATCH(C3,J:J,0)),"")</f>
         <v>SG</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f t="shared" ref="D3:D21" si="1">IFERROR(INDEX(K:K,MATCH(C3,I:I,0)),"")</f>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D21" si="1">IFERROR(INDEX(L:L,MATCH(C3,J:J,0)),"")</f>
         <v>Singapore Changi Airport</v>
       </c>
-      <c r="E3" s="4" t="str">
-        <f t="shared" ref="E3:E21" si="2">IFERROR(INDEX(L:L,MATCH(C3,I:I,0)),"")</f>
+      <c r="E3" s="3" t="str">
+        <f t="shared" ref="E3:E21" si="2">IFERROR(INDEX(M:M,MATCH(C3,J:J,0)),"")</f>
         <v>WSSS</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H21" si="3">"'"&amp;C3&amp;"'"&amp;","</f>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I21" si="3">"'"&amp;C3&amp;"'"&amp;","</f>
         <v>'Singapore',</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="J3" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="17.6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="17.6" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>IE</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="str">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Dublin Airport</v>
       </c>
-      <c r="E4" s="4" t="str">
+      <c r="E4" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EIDW</v>
       </c>
-      <c r="H4" t="str">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="3"/>
         <v>'Ireland',</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" ht="17.6" spans="1:12">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="17.6" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="str">
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Bergen Airport, Flesland</v>
       </c>
-      <c r="E5" s="4" t="str">
+      <c r="E5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ENBR</v>
       </c>
-      <c r="H5" t="str">
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
         <v>'Norway',</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
+      <c r="J5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" ht="17.6" spans="1:12">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="str">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>QA</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="str">
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Hamad International Airport</v>
       </c>
-      <c r="E6" s="4" t="str">
+      <c r="E6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>OTHH</v>
       </c>
-      <c r="H6" t="str">
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="3"/>
         <v>'Qatar',</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="17.6" spans="1:12">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:13">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="str">
+      <c r="B7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>AE</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Abu Dhabi International Airport</v>
       </c>
-      <c r="E7" s="4" t="str">
+      <c r="E7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>OMAA</v>
       </c>
-      <c r="H7" t="str">
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="3"/>
         <v>'United Arab Emirates',</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
-        <v>31</v>
+      <c r="J7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" ht="17.6" spans="1:12">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:13">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="str">
+      <c r="B8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>CH</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Geneva Cointrin International Airport</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LSGG</v>
       </c>
-      <c r="H8" t="str">
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="3"/>
         <v>'Switzerland',</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
+      <c r="J8" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="17.6" spans="1:12">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:13">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="str">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>US</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="4" t="str">
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Joint Base Andrews</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>KADW</v>
       </c>
-      <c r="H9" t="str">
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="3"/>
         <v>'United States',</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" ht="17.6" spans="1:12">
+        <v>43</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:13">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="str">
+      <c r="B10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DK</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="4" t="str">
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Billund Airport</v>
       </c>
-      <c r="E10" s="4" t="str">
+      <c r="E10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EKBI</v>
       </c>
-      <c r="H10" t="str">
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="3"/>
         <v>'Denmark',</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>44</v>
+      <c r="J10" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" ht="17.6" spans="1:12">
+        <v>47</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:13">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="str">
+      <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>NL</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="str">
+      <c r="C11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Amsterdam Airport Schiphol</v>
       </c>
-      <c r="E11" s="4" t="str">
+      <c r="E11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EHAM</v>
       </c>
-      <c r="H11" t="str">
+      <c r="F11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="3"/>
         <v>'Netherlands',</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" t="s">
-        <v>49</v>
+      <c r="J11" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" ht="17.6" spans="1:12">
+        <v>52</v>
+      </c>
+      <c r="M11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:13">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="str">
+      <c r="B12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BN</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="4" t="str">
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Brunei International Airport</v>
       </c>
-      <c r="E12" s="4" t="str">
+      <c r="E12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>WBSB</v>
       </c>
-      <c r="H12" t="str">
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="3"/>
         <v>'Brunei',</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
+      <c r="J12" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" ht="17.6" spans="1:12">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:13">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="str">
+      <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>IS</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="4" t="str">
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Keflavik International Airport</v>
       </c>
-      <c r="E13" s="4" t="str">
+      <c r="E13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BIKF</v>
       </c>
-      <c r="H13" t="str">
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="3"/>
         <v>'Iceland',</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="K13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" ht="17.6" spans="1:12">
+        <v>59</v>
+      </c>
+      <c r="M13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:13">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="str">
+      <c r="B14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>AT</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="4" t="str">
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Vienna International Airport</v>
       </c>
-      <c r="E14" s="4" t="str">
+      <c r="E14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LOWW</v>
       </c>
-      <c r="H14" t="str">
+      <c r="F14" s="1">
+        <v>9</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="3"/>
         <v>'Austria',</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14" t="s">
-        <v>59</v>
+      <c r="J14" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" ht="17.6" spans="1:12">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" ht="17.6" spans="1:13">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="str">
+      <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BE</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="4" t="str">
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Brussels Airport</v>
       </c>
-      <c r="E15" s="4" t="str">
+      <c r="E15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EBBR</v>
       </c>
-      <c r="H15" t="str">
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="3"/>
         <v>'Belgium',</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J15" t="s">
-        <v>62</v>
+      <c r="J15" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" ht="17.6" spans="1:12">
+        <v>65</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" ht="17.6" spans="1:13">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SE</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="4" t="str">
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Gothenburg-Landvetter Airport</v>
       </c>
-      <c r="E16" s="4" t="str">
+      <c r="E16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ESGG</v>
       </c>
-      <c r="H16" t="str">
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="3"/>
         <v>'Sweden',</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" t="s">
-        <v>66</v>
+      <c r="J16" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" ht="17.6" spans="1:12">
+        <v>69</v>
+      </c>
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="1:13">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="str">
+      <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>DE</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="str">
+      <c r="C17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Berlin Brandenburg Airport</v>
       </c>
-      <c r="E17" s="4" t="str">
+      <c r="E17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EDDB</v>
       </c>
-      <c r="H17" t="str">
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="3"/>
         <v>'Germany',</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>69</v>
+      <c r="J17" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" ht="17.6" spans="1:12">
+        <v>72</v>
+      </c>
+      <c r="M17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="1:13">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="str">
+      <c r="B18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>AU</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="4" t="str">
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Brisbane International Airport</v>
       </c>
-      <c r="E18" s="4" t="str">
+      <c r="E18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>YBBN</v>
       </c>
-      <c r="H18" t="str">
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="3"/>
         <v>'Australia',</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J18" t="s">
-        <v>73</v>
+      <c r="J18" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" ht="17.6" spans="1:12">
+        <v>76</v>
+      </c>
+      <c r="M18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="1:13">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="str">
+      <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>BH</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="4" t="str">
+      <c r="C19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Bahrain International Airport</v>
       </c>
-      <c r="E19" s="4" t="str">
+      <c r="E19" s="3" t="str">
         <f t="shared" si="2"/>
         <v>OBBI</v>
       </c>
-      <c r="H19" t="str">
+      <c r="F19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="3"/>
         <v>'Bahrain',</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" t="s">
-        <v>76</v>
+      <c r="J19" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" ht="17.6" spans="1:12">
+        <v>79</v>
+      </c>
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="17.6" spans="1:13">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="str">
+      <c r="B20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>SA</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="4" t="str">
+      <c r="C20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="str">
         <f t="shared" si="1"/>
         <v>King Fahd International Airport</v>
       </c>
-      <c r="E20" s="4" t="str">
+      <c r="E20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>OEDF</v>
       </c>
-      <c r="H20" t="str">
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="3"/>
         <v>'Saudi Arabia',</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" t="s">
-        <v>79</v>
+      <c r="J20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" ht="17.6" spans="1:12">
+        <v>82</v>
+      </c>
+      <c r="M20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" ht="17.6" spans="1:13">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="str">
+      <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>FI</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="4" t="str">
+      <c r="C21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3" t="str">
         <f t="shared" si="1"/>
         <v>Helsinki Vantaa Airport</v>
       </c>
-      <c r="E21" s="4" t="str">
+      <c r="E21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EFHK</v>
       </c>
-      <c r="H21" t="str">
+      <c r="F21" s="1">
+        <v>8</v>
+      </c>
+      <c r="I21" t="str">
         <f>"'"&amp;C21&amp;"'"</f>
         <v>'Finland'</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" t="s">
-        <v>82</v>
+      <c r="J21" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L21" t="s">
-        <v>84</v>
+        <v>85</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2241,14 +2412,353 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9.92307692307692" customWidth="1"/>
+    <col min="2" max="2" width="13.4615384615385" customWidth="1"/>
+    <col min="3" max="3" width="14.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="18.7403846153846" customWidth="1"/>
+    <col min="5" max="5" width="37.3076923076923" customWidth="1"/>
+    <col min="6" max="6" width="19.2307692307692" customWidth="1"/>
+    <col min="7" max="7" width="15.6153846153846" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6">
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="2" width="10.8942307692308" customWidth="1"/>
+    <col min="3" max="3" width="17.7788461538462" customWidth="1"/>
+    <col min="4" max="4" width="18.9038461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="1">
+        <v>50</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="1">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="1">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="11.8461538461538" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/datas_selected.xlsx
+++ b/datas_selected.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="12560"/>
+    <workbookView windowWidth="23880" windowHeight="12560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="game_country" sheetId="1" r:id="rId1"/>
     <sheet name="player_country" sheetId="2" r:id="rId2"/>
     <sheet name="inventor" sheetId="3" r:id="rId3"/>
     <sheet name="Clue" sheetId="4" r:id="rId4"/>
+    <sheet name="player_emission" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -384,6 +385,15 @@
   </si>
   <si>
     <t>Passer-by</t>
+  </si>
+  <si>
+    <t>carbon_limit</t>
+  </si>
+  <si>
+    <t>carbon_used</t>
+  </si>
+  <si>
+    <t>carbon_left</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1594,7 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2762,4 +2772,35 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/datas_selected.xlsx
+++ b/datas_selected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23880" windowHeight="12560" activeTab="4"/>
+    <workbookView windowWidth="23260" windowHeight="11560" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="game_country" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -69,7 +69,7 @@
     <t>Singapore</t>
   </si>
   <si>
-    <t>null</t>
+    <t>NULL</t>
   </si>
   <si>
     <t>Austria</t>
@@ -294,106 +294,106 @@
     <t>KADW</t>
   </si>
   <si>
+    <t>player_country_id</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>start_airport</t>
+  </si>
+  <si>
+    <t>initial_capa_value</t>
+  </si>
+  <si>
+    <t>final_goal_gap</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>Beijing Capital International Airport</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Charles de Gaulle International Airport</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>London Heathrow Airport</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>Sheremetyevo International Airport</t>
+  </si>
+  <si>
+    <t>Washington Dulles International Airport</t>
+  </si>
+  <si>
+    <t>invent_id</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Ordinary</t>
+  </si>
+  <si>
+    <t>clue_type</t>
+  </si>
+  <si>
+    <t>clue_point</t>
+  </si>
+  <si>
+    <t>Key Person</t>
+  </si>
+  <si>
+    <t>General Informants</t>
+  </si>
+  <si>
+    <t>Passer-by</t>
+  </si>
+  <si>
     <t>player_id</t>
   </si>
   <si>
     <t>player_name</t>
   </si>
   <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>start_airport</t>
-  </si>
-  <si>
-    <t>initial_capa_value</t>
-  </si>
-  <si>
-    <t>final_goal_gap</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Beijing Capital International Airport</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Charles de Gaulle International Airport</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>London Heathrow Airport</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Sheremetyevo International Airport</t>
-  </si>
-  <si>
-    <t>Washington Dulles International Airport</t>
-  </si>
-  <si>
-    <t>invent_id</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>contribution</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>Genius</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Ordinary</t>
-  </si>
-  <si>
-    <t>clue_type</t>
-  </si>
-  <si>
-    <t>clue_point</t>
-  </si>
-  <si>
-    <t>Key Person</t>
-  </si>
-  <si>
-    <t>General Informants</t>
-  </si>
-  <si>
-    <t>Passer-by</t>
-  </si>
-  <si>
     <t>carbon_limit</t>
   </si>
   <si>
     <t>carbon_used</t>
-  </si>
-  <si>
-    <t>carbon_left</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1045,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1594,18 +1597,18 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="11.2115384615385" customWidth="1"/>
-    <col min="3" max="3" width="21.9519230769231" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.9519230769231" style="3" customWidth="1"/>
     <col min="4" max="4" width="37.3365384615385" customWidth="1"/>
     <col min="5" max="5" width="22.4326923076923" customWidth="1"/>
     <col min="6" max="6" width="15.5384615384615" style="1" customWidth="1"/>
-    <col min="7" max="7" width="34.6153846153846" customWidth="1"/>
+    <col min="7" max="7" width="71.3076923076923" customWidth="1"/>
     <col min="8" max="9" width="21.4711538461538" customWidth="1"/>
     <col min="10" max="10" width="27.7211538461538" customWidth="1"/>
     <col min="11" max="11" width="11.2115384615385" customWidth="1"/>
@@ -1614,52 +1617,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="17.6" spans="1:13">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="4" t="str">
         <f>IFERROR(INDEX(K:K,MATCH(C2,J:J,0)),"")</f>
         <v>LU</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="4" t="str">
         <f>IFERROR(INDEX(L:L,MATCH(C2,J:J,0)),"")</f>
         <v>Luxembourg-Findel International Airport</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="4" t="str">
         <f>IFERROR(INDEX(M:M,MATCH(C2,J:J,0)),"")</f>
         <v>ELLX</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"',"&amp;F2&amp;")"</f>
+        <v>(1,'LU','Luxembourg','Luxembourg-Findel International Airport','ELLX',2)</v>
       </c>
       <c r="I2" t="str">
         <f>"'"&amp;C2&amp;"'"&amp;","</f>
         <v>'Luxembourg',</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
@@ -1673,32 +1680,36 @@
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:13">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B21" si="0">IFERROR(INDEX(K:K,MATCH(C3,J:J,0)),"")</f>
         <v>SG</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D21" si="1">IFERROR(INDEX(L:L,MATCH(C3,J:J,0)),"")</f>
         <v>Singapore Changi Airport</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="4" t="str">
         <f t="shared" ref="E3:E21" si="2">IFERROR(INDEX(M:M,MATCH(C3,J:J,0)),"")</f>
         <v>WSSS</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="3">"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"',"&amp;F3&amp;")"</f>
+        <v>(2,'SG','Singapore','Singapore Changi Airport','WSSS',NULL)</v>
+      </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I21" si="3">"'"&amp;C3&amp;"'"&amp;","</f>
+        <f t="shared" ref="I3:I21" si="4">"'"&amp;C3&amp;"'"&amp;","</f>
         <v>'Singapore',</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K3" t="s">
@@ -1712,32 +1723,36 @@
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:13">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>IE</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Dublin Airport</v>
       </c>
-      <c r="E4" s="3" t="str">
+      <c r="E4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EIDW</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="3"/>
+        <v>(3,'IE','Ireland','Dublin Airport','EIDW',3)</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Ireland',</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="K4" t="s">
@@ -1751,32 +1766,36 @@
       </c>
     </row>
     <row r="5" ht="17.6" spans="1:13">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NO</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bergen Airport, Flesland</v>
       </c>
-      <c r="E5" s="3" t="str">
+      <c r="E5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>ENBR</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="3"/>
+        <v>(4,'NO','Norway','Bergen Airport, Flesland','ENBR',NULL)</v>
+      </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Norway',</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="K5" t="s">
@@ -1790,32 +1809,36 @@
       </c>
     </row>
     <row r="6" ht="17.6" spans="1:13">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>QA</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="3" t="str">
+      <c r="D6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Hamad International Airport</v>
       </c>
-      <c r="E6" s="3" t="str">
+      <c r="E6" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OTHH</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="3"/>
+        <v>(5,'QA','Qatar','Hamad International Airport','OTHH',1)</v>
+      </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Qatar',</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K6" t="s">
@@ -1829,32 +1852,36 @@
       </c>
     </row>
     <row r="7" ht="17.6" spans="1:13">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AE</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="str">
+      <c r="D7" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Abu Dhabi International Airport</v>
       </c>
-      <c r="E7" s="3" t="str">
+      <c r="E7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OMAA</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="3"/>
+        <v>(6,'AE','United Arab Emirates','Abu Dhabi International Airport','OMAA',6)</v>
+      </c>
       <c r="I7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'United Arab Emirates',</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>32</v>
       </c>
       <c r="K7" t="s">
@@ -1868,32 +1895,36 @@
       </c>
     </row>
     <row r="8" ht="17.6" spans="1:13">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>CH</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="str">
+      <c r="D8" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Geneva Cointrin International Airport</v>
       </c>
-      <c r="E8" s="3" t="str">
+      <c r="E8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>LSGG</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="3"/>
+        <v>(7,'CH','Switzerland','Geneva Cointrin International Airport','LSGG',NULL)</v>
+      </c>
       <c r="I8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Switzerland',</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>36</v>
       </c>
       <c r="K8" t="s">
@@ -1907,32 +1938,36 @@
       </c>
     </row>
     <row r="9" ht="17.6" spans="1:13">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>US</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="3" t="str">
+      <c r="D9" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Joint Base Andrews</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>KADW</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="3"/>
+        <v>(8,'US','United States','Joint Base Andrews','KADW',7)</v>
+      </c>
       <c r="I9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'United States',</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>41</v>
       </c>
       <c r="K9" t="s">
@@ -1946,32 +1981,36 @@
       </c>
     </row>
     <row r="10" ht="17.6" spans="1:13">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DK</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="3" t="str">
+      <c r="D10" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Billund Airport</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EKBI</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G10" t="str">
+        <f t="shared" si="3"/>
+        <v>(9,'DK','Denmark','Billund Airport','EKBI',NULL)</v>
+      </c>
       <c r="I10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Denmark',</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="K10" t="s">
@@ -1985,32 +2024,36 @@
       </c>
     </row>
     <row r="11" ht="17.6" spans="1:13">
-      <c r="A11" s="5">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>NL</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="3" t="str">
+      <c r="D11" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Amsterdam Airport Schiphol</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EHAM</v>
       </c>
       <c r="F11" s="1">
         <v>4</v>
       </c>
+      <c r="G11" t="str">
+        <f t="shared" si="3"/>
+        <v>(10,'NL','Netherlands','Amsterdam Airport Schiphol','EHAM',4)</v>
+      </c>
       <c r="I11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Netherlands',</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>50</v>
       </c>
       <c r="K11" t="s">
@@ -2024,32 +2067,36 @@
       </c>
     </row>
     <row r="12" ht="17.6" spans="1:13">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BN</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="str">
+      <c r="D12" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Brunei International Airport</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>WBSB</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G12" t="str">
+        <f t="shared" si="3"/>
+        <v>(11,'BN','Brunei','Brunei International Airport','WBSB',NULL)</v>
+      </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Brunei',</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="K12" t="s">
@@ -2063,32 +2110,36 @@
       </c>
     </row>
     <row r="13" ht="17.6" spans="1:13">
-      <c r="A13" s="5">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>IS</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3" t="str">
+      <c r="D13" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Keflavik International Airport</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>BIKF</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G13" t="str">
+        <f t="shared" si="3"/>
+        <v>(12,'IS','Iceland','Keflavik International Airport','BIKF',NULL)</v>
+      </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Iceland',</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>57</v>
       </c>
       <c r="K13" t="s">
@@ -2102,32 +2153,36 @@
       </c>
     </row>
     <row r="14" ht="17.6" spans="1:13">
-      <c r="A14" s="5">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AT</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3" t="str">
+      <c r="D14" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Vienna International Airport</v>
       </c>
-      <c r="E14" s="3" t="str">
+      <c r="E14" s="4" t="str">
         <f t="shared" si="2"/>
         <v>LOWW</v>
       </c>
       <c r="F14" s="1">
         <v>9</v>
       </c>
+      <c r="G14" t="str">
+        <f t="shared" si="3"/>
+        <v>(13,'AT','Austria','Vienna International Airport','LOWW',9)</v>
+      </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Austria',</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>6</v>
       </c>
       <c r="K14" t="s">
@@ -2141,32 +2196,36 @@
       </c>
     </row>
     <row r="15" ht="17.6" spans="1:13">
-      <c r="A15" s="5">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BE</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="str">
+      <c r="D15" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Brussels Airport</v>
       </c>
-      <c r="E15" s="3" t="str">
+      <c r="E15" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EBBR</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G15" t="str">
+        <f t="shared" si="3"/>
+        <v>(14,'BE','Belgium','Brussels Airport','EBBR',NULL)</v>
+      </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Belgium',</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="K15" t="s">
@@ -2180,32 +2239,36 @@
       </c>
     </row>
     <row r="16" ht="17.6" spans="1:13">
-      <c r="A16" s="5">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SE</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="3" t="str">
+      <c r="D16" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Gothenburg-Landvetter Airport</v>
       </c>
-      <c r="E16" s="3" t="str">
+      <c r="E16" s="4" t="str">
         <f t="shared" si="2"/>
         <v>ESGG</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G16" t="str">
+        <f t="shared" si="3"/>
+        <v>(15,'SE','Sweden','Gothenburg-Landvetter Airport','ESGG',NULL)</v>
+      </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Sweden',</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="K16" t="s">
@@ -2219,32 +2282,36 @@
       </c>
     </row>
     <row r="17" ht="17.6" spans="1:13">
-      <c r="A17" s="5">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>DE</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="3" t="str">
+      <c r="D17" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Berlin Brandenburg Airport</v>
       </c>
-      <c r="E17" s="3" t="str">
+      <c r="E17" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EDDB</v>
       </c>
       <c r="F17" s="1">
         <v>5</v>
       </c>
+      <c r="G17" t="str">
+        <f t="shared" si="3"/>
+        <v>(16,'DE','Germany','Berlin Brandenburg Airport','EDDB',5)</v>
+      </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Germany',</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>27</v>
       </c>
       <c r="K17" t="s">
@@ -2258,32 +2325,36 @@
       </c>
     </row>
     <row r="18" ht="17.6" spans="1:13">
-      <c r="A18" s="5">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>AU</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3" t="str">
+      <c r="D18" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Brisbane International Airport</v>
       </c>
-      <c r="E18" s="3" t="str">
+      <c r="E18" s="4" t="str">
         <f t="shared" si="2"/>
         <v>YBBN</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G18" t="str">
+        <f t="shared" si="3"/>
+        <v>(17,'AU','Australia','Brisbane International Airport','YBBN',NULL)</v>
+      </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Australia',</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K18" t="s">
@@ -2297,32 +2368,36 @@
       </c>
     </row>
     <row r="19" ht="17.6" spans="1:13">
-      <c r="A19" s="5">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BH</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="3" t="str">
+      <c r="D19" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Bahrain International Airport</v>
       </c>
-      <c r="E19" s="3" t="str">
+      <c r="E19" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OBBI</v>
       </c>
       <c r="F19" s="1">
         <v>10</v>
       </c>
+      <c r="G19" t="str">
+        <f t="shared" si="3"/>
+        <v>(18,'BH','Bahrain','Bahrain International Airport','OBBI',10)</v>
+      </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Bahrain',</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>67</v>
       </c>
       <c r="K19" t="s">
@@ -2336,32 +2411,36 @@
       </c>
     </row>
     <row r="20" ht="17.6" spans="1:13">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SA</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="3" t="str">
+      <c r="D20" s="4" t="str">
         <f t="shared" si="1"/>
         <v>King Fahd International Airport</v>
       </c>
-      <c r="E20" s="3" t="str">
+      <c r="E20" s="4" t="str">
         <f t="shared" si="2"/>
         <v>OEDF</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>(19,'SA','Saudi Arabia','King Fahd International Airport','OEDF',NULL)</v>
+      </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>'Saudi Arabia',</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K20" t="s">
@@ -2375,32 +2454,36 @@
       </c>
     </row>
     <row r="21" ht="17.6" spans="1:13">
-      <c r="A21" s="5">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>FI</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="3" t="str">
+      <c r="D21" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Helsinki Vantaa Airport</v>
       </c>
-      <c r="E21" s="3" t="str">
+      <c r="E21" s="4" t="str">
         <f t="shared" si="2"/>
         <v>EFHK</v>
       </c>
       <c r="F21" s="1">
         <v>8</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="3"/>
+        <v>(20,'FI','Finland','Helsinki Vantaa Airport','EFHK',8)</v>
       </c>
       <c r="I21" t="str">
         <f>"'"&amp;C21&amp;"'"</f>
         <v>'Finland'</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="K21" t="s">
@@ -2424,22 +2507,22 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9.92307692307692" customWidth="1"/>
-    <col min="2" max="2" width="13.4615384615385" customWidth="1"/>
-    <col min="3" max="3" width="14.8461538461538" customWidth="1"/>
-    <col min="4" max="4" width="18.7403846153846" customWidth="1"/>
-    <col min="5" max="5" width="37.3076923076923" customWidth="1"/>
-    <col min="6" max="6" width="19.2307692307692" customWidth="1"/>
-    <col min="7" max="7" width="15.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="14.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="18.7403846153846" customWidth="1"/>
+    <col min="4" max="4" width="37.3076923076923" customWidth="1"/>
+    <col min="5" max="5" width="19.2307692307692" customWidth="1"/>
+    <col min="6" max="6" width="15.6153846153846" customWidth="1"/>
+    <col min="7" max="7" width="65.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>87</v>
       </c>
@@ -2447,10 +2530,10 @@
         <v>88</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>89</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>90</v>
@@ -2458,78 +2541,125 @@
       <c r="F1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="3:6">
       <c r="C2" t="s">
         <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>94</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"',"&amp;E2&amp;","&amp;F2&amp;")"</f>
+        <v>(1,'China','CN','Beijing Capital International Airport',100,NULL)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>95</v>
       </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6">
       <c r="C3" t="s">
         <v>96</v>
       </c>
       <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>110</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"("&amp;A3&amp;",'"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"',"&amp;E3&amp;","&amp;F3&amp;")"</f>
+        <v>(2,'France','FR','Charles de Gaulle International Airport',110,NULL)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="F3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6">
       <c r="C4" t="s">
         <v>99</v>
       </c>
       <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"("&amp;A4&amp;",'"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;D4&amp;"',"&amp;E4&amp;","&amp;F4&amp;")"</f>
+        <v>(3,'United Kingdom','GB','London Heathrow Airport',120,NULL)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>101</v>
       </c>
-      <c r="F4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6">
       <c r="C5" t="s">
         <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>103</v>
       </c>
-      <c r="E5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5">
+      <c r="E5">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="3:6">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="str">
+        <f>"("&amp;A5&amp;",'"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"',"&amp;E5&amp;","&amp;F5&amp;")"</f>
+        <v>(4,'Russia','RU','Sheremetyevo International Airport',130,NULL)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
       <c r="C6" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6">
+        <v>104</v>
+      </c>
+      <c r="E6">
         <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"("&amp;A6&amp;",'"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;D6&amp;"',"&amp;E6&amp;","&amp;F6&amp;")"</f>
+        <v>(5,'United States','US','Washington Dulles International Airport',140,NULL)</v>
       </c>
     </row>
   </sheetData>
@@ -2541,89 +2671,122 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="10.8942307692308" customWidth="1"/>
     <col min="3" max="3" width="17.7788461538462" customWidth="1"/>
     <col min="4" max="4" width="18.9038461538462" customWidth="1"/>
+    <col min="5" max="5" width="25.1538461538462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>50</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"',"&amp;C2&amp;","&amp;D2&amp;")"</f>
+        <v>(1,'Genius',50,NULL)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1">
         <v>40</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="str">
+        <f>"("&amp;A3&amp;",'"&amp;B3&amp;"',"&amp;C3&amp;","&amp;D3&amp;")"</f>
+        <v>(2,'Good',40,NULL)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="1">
         <v>30</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"("&amp;A4&amp;",'"&amp;B4&amp;"',"&amp;C4&amp;","&amp;D4&amp;")"</f>
+        <v>(3,'Ordinary',30,NULL)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="str">
+        <f>"("&amp;A5&amp;",'"&amp;B5&amp;"',"&amp;C5&amp;","&amp;D5&amp;")"</f>
+        <v>(4,'Ordinary',30,NULL)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="str">
+        <f>"("&amp;A6&amp;",'"&amp;B6&amp;"',"&amp;C6&amp;","&amp;D6&amp;")"</f>
+        <v>(5,'Ordinary',30,NULL)</v>
       </c>
     </row>
   </sheetData>
@@ -2635,16 +2798,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="23.875" customWidth="1"/>
     <col min="3" max="3" width="11.8461538461538" customWidth="1"/>
+    <col min="4" max="4" width="26.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2652,120 +2816,160 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="str">
+        <f>"("&amp;A2&amp;",'"&amp;B2&amp;"',"&amp;C2&amp;")"</f>
+        <v>(1,'Key Person',20)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D11" si="0">"("&amp;A3&amp;",'"&amp;B3&amp;"',"&amp;C3&amp;")"</f>
+        <v>(2,'General Informants',10)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>(3,'General Informants',10)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>(4,'General Informants',10)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>(5,'General Informants',10)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>(6,'Passer-by',5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>(7,'Passer-by',5)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>(8,'Passer-by',5)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>(9,'Passer-by',5)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="1">
         <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>(10,'Passer-by',5)</v>
       </c>
     </row>
   </sheetData>
@@ -2777,25 +2981,33 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="3" width="9.92307692307692" customWidth="1"/>
+    <col min="4" max="4" width="13.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="13.1538461538462" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>118</v>
       </c>
       <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>120</v>
       </c>
     </row>
